--- a/data/pca/factorExposure/factorExposure_2018-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009509297452569251</v>
+        <v>0.01412145666441023</v>
       </c>
       <c r="C2">
-        <v>0.0261411190571137</v>
+        <v>-0.01595764292577165</v>
       </c>
       <c r="D2">
-        <v>0.03260792205857314</v>
+        <v>0.03476381942588601</v>
       </c>
       <c r="E2">
-        <v>-0.008284073848160531</v>
+        <v>0.01988590402909437</v>
       </c>
       <c r="F2">
-        <v>0.100381798949092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0002718657437535041</v>
+      </c>
+      <c r="G2">
+        <v>0.03552781322386531</v>
+      </c>
+      <c r="H2">
+        <v>0.04714044918587239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08844471245647452</v>
+        <v>0.06609533656467018</v>
       </c>
       <c r="C3">
-        <v>0.04563116007989137</v>
+        <v>0.01697243472912999</v>
       </c>
       <c r="D3">
-        <v>0.03360991042558464</v>
+        <v>0.08149896252767989</v>
       </c>
       <c r="E3">
-        <v>-0.04512134279962937</v>
+        <v>0.009829935676206448</v>
       </c>
       <c r="F3">
-        <v>0.3384489430401078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03205217184675558</v>
+      </c>
+      <c r="G3">
+        <v>0.1487820201427722</v>
+      </c>
+      <c r="H3">
+        <v>0.121238987589466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04354984351102263</v>
+        <v>0.03524685845876086</v>
       </c>
       <c r="C4">
-        <v>0.01438483208476101</v>
+        <v>-0.001115617854455265</v>
       </c>
       <c r="D4">
-        <v>0.04417423419728439</v>
+        <v>0.06670633972640189</v>
       </c>
       <c r="E4">
-        <v>0.02612454845424063</v>
+        <v>-0.01602129378518384</v>
       </c>
       <c r="F4">
-        <v>0.06013173713560353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03538712270926389</v>
+      </c>
+      <c r="G4">
+        <v>0.04430016510245187</v>
+      </c>
+      <c r="H4">
+        <v>0.05835915352949575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03202057904914679</v>
+        <v>0.01958039742617459</v>
       </c>
       <c r="C6">
-        <v>0.01198628901694596</v>
+        <v>0.00302144053078572</v>
       </c>
       <c r="D6">
-        <v>0.03970234985388408</v>
+        <v>0.06516851155538081</v>
       </c>
       <c r="E6">
-        <v>0.01791916565892814</v>
+        <v>-0.005430797471606422</v>
       </c>
       <c r="F6">
-        <v>0.009879834906035891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03053691503909645</v>
+      </c>
+      <c r="G6">
+        <v>0.01617306882735303</v>
+      </c>
+      <c r="H6">
+        <v>0.05916270482229041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03630122306140707</v>
+        <v>0.008212001210983751</v>
       </c>
       <c r="C7">
-        <v>-0.0285181310769141</v>
+        <v>-0.001745821751187618</v>
       </c>
       <c r="D7">
-        <v>0.03902812629303302</v>
+        <v>0.03680663407554166</v>
       </c>
       <c r="E7">
-        <v>0.01274579019793569</v>
+        <v>-0.04314871741406334</v>
       </c>
       <c r="F7">
-        <v>0.0369007742660296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.003890616271703479</v>
+      </c>
+      <c r="G7">
+        <v>0.02283381434920557</v>
+      </c>
+      <c r="H7">
+        <v>0.03544005457781786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01468779609946222</v>
+        <v>0.001845145107111474</v>
       </c>
       <c r="C8">
-        <v>0.0008234170554658356</v>
+        <v>0.00182041073148504</v>
       </c>
       <c r="D8">
-        <v>0.05025527915998897</v>
+        <v>0.01206946293549613</v>
       </c>
       <c r="E8">
-        <v>0.01598906540733979</v>
+        <v>-0.008910664854106787</v>
       </c>
       <c r="F8">
-        <v>0.06150439663165676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.007721860988746114</v>
+      </c>
+      <c r="G8">
+        <v>0.03852445519062197</v>
+      </c>
+      <c r="H8">
+        <v>0.03484111699060193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03086680857134074</v>
+        <v>0.02662266023539179</v>
       </c>
       <c r="C9">
-        <v>0.008809716602730302</v>
+        <v>0.001032407041501283</v>
       </c>
       <c r="D9">
-        <v>0.03611552301579798</v>
+        <v>0.04874709194645563</v>
       </c>
       <c r="E9">
-        <v>0.008265339048467064</v>
+        <v>-0.005506716384816757</v>
       </c>
       <c r="F9">
-        <v>0.07759768382194326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01052328028640369</v>
+      </c>
+      <c r="G9">
+        <v>0.04463451748409082</v>
+      </c>
+      <c r="H9">
+        <v>0.05579354794648048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04092113416651138</v>
+        <v>0.1337085721633933</v>
       </c>
       <c r="C10">
-        <v>0.002019468628388372</v>
+        <v>-0.006842564769335117</v>
       </c>
       <c r="D10">
-        <v>-0.1482428562647254</v>
+        <v>-0.1485985651951371</v>
       </c>
       <c r="E10">
-        <v>-0.03348780601404484</v>
+        <v>0.001189493994226896</v>
       </c>
       <c r="F10">
-        <v>0.06809653548714935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04293035739153715</v>
+      </c>
+      <c r="G10">
+        <v>0.02815724604060029</v>
+      </c>
+      <c r="H10">
+        <v>-0.00818853480268294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02891991171915796</v>
+        <v>0.01597954104088391</v>
       </c>
       <c r="C11">
-        <v>0.02105281060854093</v>
+        <v>0.01320932014176906</v>
       </c>
       <c r="D11">
-        <v>0.04205135723464389</v>
+        <v>0.04877276637575544</v>
       </c>
       <c r="E11">
-        <v>0.01223811814774885</v>
+        <v>0.001614290819148137</v>
       </c>
       <c r="F11">
-        <v>0.02699331103704691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.009177234707754313</v>
+      </c>
+      <c r="G11">
+        <v>0.02027431477608196</v>
+      </c>
+      <c r="H11">
+        <v>0.05206788427228004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04070671805881965</v>
+        <v>0.01990313549386983</v>
       </c>
       <c r="C12">
-        <v>0.02032834553512636</v>
+        <v>0.009445588380532915</v>
       </c>
       <c r="D12">
-        <v>0.03550963998506467</v>
+        <v>0.04840375173209805</v>
       </c>
       <c r="E12">
-        <v>0.02178745994754198</v>
+        <v>-0.01096750409957671</v>
       </c>
       <c r="F12">
-        <v>0.001683044385786058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01261505276811737</v>
+      </c>
+      <c r="G12">
+        <v>0.006046389176248201</v>
+      </c>
+      <c r="H12">
+        <v>0.02115230362429306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.009492895123416108</v>
+        <v>0.01943613488901958</v>
       </c>
       <c r="C13">
-        <v>0.02027004142898586</v>
+        <v>-0.01262661551556352</v>
       </c>
       <c r="D13">
-        <v>0.01778229062235506</v>
+        <v>0.02905787216604776</v>
       </c>
       <c r="E13">
-        <v>0.007388119241467289</v>
+        <v>0.0132448457457353</v>
       </c>
       <c r="F13">
-        <v>0.07697715946074281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01249852328094864</v>
+      </c>
+      <c r="G13">
+        <v>0.05761199763166731</v>
+      </c>
+      <c r="H13">
+        <v>0.07371839417811757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0190534786270919</v>
+        <v>0.009857349154939774</v>
       </c>
       <c r="C14">
-        <v>-0.003936792350401427</v>
+        <v>-0.000707127475261647</v>
       </c>
       <c r="D14">
-        <v>0.02620952371143383</v>
+        <v>0.02002057348661735</v>
       </c>
       <c r="E14">
-        <v>0.01589438490549757</v>
+        <v>-0.01391723047595496</v>
       </c>
       <c r="F14">
-        <v>0.05083150072858159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.004353525066485075</v>
+      </c>
+      <c r="G14">
+        <v>0.04052833192920439</v>
+      </c>
+      <c r="H14">
+        <v>0.01010112964867006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03069388662604854</v>
+        <v>0.01774995478970774</v>
       </c>
       <c r="C16">
-        <v>0.02151290276051271</v>
+        <v>0.01234281266376095</v>
       </c>
       <c r="D16">
-        <v>0.04490873347822508</v>
+        <v>0.04234315736399205</v>
       </c>
       <c r="E16">
-        <v>0.01474665484573301</v>
+        <v>-0.002090876303397069</v>
       </c>
       <c r="F16">
-        <v>0.02749486185988056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01164877518421396</v>
+      </c>
+      <c r="G16">
+        <v>0.01926272431936715</v>
+      </c>
+      <c r="H16">
+        <v>0.03874285232765736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03257371414334705</v>
+        <v>0.01884055022724667</v>
       </c>
       <c r="C19">
-        <v>0.01649153500628872</v>
+        <v>0.001565386361887875</v>
       </c>
       <c r="D19">
-        <v>0.05951343294752652</v>
+        <v>0.0476199937455435</v>
       </c>
       <c r="E19">
-        <v>0.02848626714261775</v>
+        <v>-0.01053853929792396</v>
       </c>
       <c r="F19">
-        <v>0.08009283525416422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01758809854604111</v>
+      </c>
+      <c r="G19">
+        <v>0.05745998672489518</v>
+      </c>
+      <c r="H19">
+        <v>0.05439428533686842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001249424387427861</v>
+        <v>0.004252960971100469</v>
       </c>
       <c r="C20">
-        <v>-0.007623792747608863</v>
+        <v>-0.004460772393312979</v>
       </c>
       <c r="D20">
-        <v>0.01185150457841153</v>
+        <v>0.02415171463527691</v>
       </c>
       <c r="E20">
-        <v>0.01177911124871216</v>
+        <v>-0.003334106371307561</v>
       </c>
       <c r="F20">
-        <v>0.0601208278506638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.004307667973629387</v>
+      </c>
+      <c r="G20">
+        <v>0.04963033555613038</v>
+      </c>
+      <c r="H20">
+        <v>0.02870665576074836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01421449601154315</v>
+        <v>0.01168987066171874</v>
       </c>
       <c r="C21">
-        <v>-0.01695668692510494</v>
+        <v>-0.006388119809771322</v>
       </c>
       <c r="D21">
-        <v>0.039611497935948</v>
+        <v>0.02322492779947936</v>
       </c>
       <c r="E21">
-        <v>-0.003189950748484078</v>
+        <v>-0.01661822340170782</v>
       </c>
       <c r="F21">
-        <v>0.02657553955656791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.004961066003654204</v>
+      </c>
+      <c r="G21">
+        <v>0.04310096448413999</v>
+      </c>
+      <c r="H21">
+        <v>0.0487846228916983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02817220953508717</v>
+        <v>0.01294613920688683</v>
       </c>
       <c r="C24">
-        <v>0.01956426465953915</v>
+        <v>0.006944815906655516</v>
       </c>
       <c r="D24">
-        <v>0.0253493683973572</v>
+        <v>0.0434790405512164</v>
       </c>
       <c r="E24">
-        <v>0.01295070651600265</v>
+        <v>-0.0003055531865143315</v>
       </c>
       <c r="F24">
-        <v>0.03085613632278425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.007709706172282996</v>
+      </c>
+      <c r="G24">
+        <v>0.0140575774794592</v>
+      </c>
+      <c r="H24">
+        <v>0.04652807538652073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03228808967049343</v>
+        <v>0.02674507718200822</v>
       </c>
       <c r="C25">
-        <v>0.01765518400847361</v>
+        <v>0.005293755054890154</v>
       </c>
       <c r="D25">
-        <v>0.03771316084253495</v>
+        <v>0.0479945537890611</v>
       </c>
       <c r="E25">
-        <v>0.008755452569193665</v>
+        <v>-0.006539912799671516</v>
       </c>
       <c r="F25">
-        <v>0.03225223571888744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01652174177432422</v>
+      </c>
+      <c r="G25">
+        <v>0.01683009819869425</v>
+      </c>
+      <c r="H25">
+        <v>0.04690160399886487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01717101343658287</v>
+        <v>0.01238395740144308</v>
       </c>
       <c r="C26">
-        <v>0.01132367643471037</v>
+        <v>-0.01846004045486361</v>
       </c>
       <c r="D26">
-        <v>0.0227158580369742</v>
+        <v>0.01346699389432377</v>
       </c>
       <c r="E26">
-        <v>-0.006619798370815612</v>
+        <v>3.895806918019529e-05</v>
       </c>
       <c r="F26">
-        <v>0.05143618860576556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002661799377757987</v>
+      </c>
+      <c r="G26">
+        <v>0.02466596140745217</v>
+      </c>
+      <c r="H26">
+        <v>0.02074814697519263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03788524284770707</v>
+        <v>0.01402360287525696</v>
       </c>
       <c r="C27">
-        <v>0.01796524146240112</v>
+        <v>0.006298143583090839</v>
       </c>
       <c r="D27">
-        <v>0.01370819660934552</v>
+        <v>0.0143146220189012</v>
       </c>
       <c r="E27">
-        <v>0.03002056081441399</v>
+        <v>-0.005710708306778028</v>
       </c>
       <c r="F27">
-        <v>0.01906826767566415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.005682366001588765</v>
+      </c>
+      <c r="G27">
+        <v>0.009666400265655604</v>
+      </c>
+      <c r="H27">
+        <v>-0.001480481230301078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07250750883294348</v>
+        <v>0.1860109752358182</v>
       </c>
       <c r="C28">
-        <v>0.004577174528859763</v>
+        <v>-0.02014535976433705</v>
       </c>
       <c r="D28">
-        <v>-0.2174203657845774</v>
+        <v>-0.1903648360892001</v>
       </c>
       <c r="E28">
-        <v>-0.05425336826929739</v>
+        <v>-0.01044159556075966</v>
       </c>
       <c r="F28">
-        <v>0.06907880444144879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03881272186512067</v>
+      </c>
+      <c r="G28">
+        <v>0.01673789106966214</v>
+      </c>
+      <c r="H28">
+        <v>-0.008623992471689566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02078980039678441</v>
+        <v>0.01518590260351324</v>
       </c>
       <c r="C29">
-        <v>-0.002861826073156775</v>
+        <v>0.0005627784269854851</v>
       </c>
       <c r="D29">
-        <v>0.03110564157611918</v>
+        <v>0.01966065168135613</v>
       </c>
       <c r="E29">
-        <v>0.01694824255671037</v>
+        <v>-0.01287423227540643</v>
       </c>
       <c r="F29">
-        <v>0.04807259634100591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.004741269102942695</v>
+      </c>
+      <c r="G29">
+        <v>0.04029808852644933</v>
+      </c>
+      <c r="H29">
+        <v>0.006583403288763947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05212630037624227</v>
+        <v>0.03506916989631838</v>
       </c>
       <c r="C30">
-        <v>0.07307212010950863</v>
+        <v>0.002518605750372967</v>
       </c>
       <c r="D30">
-        <v>0.06537054335794168</v>
+        <v>0.09650897756244783</v>
       </c>
       <c r="E30">
-        <v>0.03375172201420586</v>
+        <v>0.03217769850158941</v>
       </c>
       <c r="F30">
-        <v>0.08112141297108406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03580003778597085</v>
+      </c>
+      <c r="G30">
+        <v>0.05906987078061228</v>
+      </c>
+      <c r="H30">
+        <v>0.07284143904947495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0532348758257136</v>
+        <v>0.04404772143074628</v>
       </c>
       <c r="C31">
-        <v>0.03544386992636328</v>
+        <v>0.01029480854895064</v>
       </c>
       <c r="D31">
-        <v>0.02740982391755207</v>
+        <v>0.03223770467389171</v>
       </c>
       <c r="E31">
-        <v>0.01439030437892981</v>
+        <v>0.002368987711411112</v>
       </c>
       <c r="F31">
-        <v>0.03014505894892325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0006523703771650274</v>
+      </c>
+      <c r="G31">
+        <v>0.01789453683324383</v>
+      </c>
+      <c r="H31">
+        <v>0.003044741339562346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02286806485809502</v>
+        <v>0.008145122257638762</v>
       </c>
       <c r="C32">
-        <v>-0.01445962561759649</v>
+        <v>0.01368988588044952</v>
       </c>
       <c r="D32">
-        <v>0.06447777650694406</v>
+        <v>0.0139816057924847</v>
       </c>
       <c r="E32">
-        <v>0.02715682659346886</v>
+        <v>-0.03050570837950953</v>
       </c>
       <c r="F32">
-        <v>0.04032179127070051</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03008511494142435</v>
+      </c>
+      <c r="G32">
+        <v>0.04290360020337752</v>
+      </c>
+      <c r="H32">
+        <v>0.04719254803298131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03159651844148959</v>
+        <v>0.0221752534323639</v>
       </c>
       <c r="C33">
-        <v>0.04218407620315499</v>
+        <v>0.002217669443778448</v>
       </c>
       <c r="D33">
-        <v>0.05692767375443539</v>
+        <v>0.04979039642834564</v>
       </c>
       <c r="E33">
-        <v>-0.004302409315074115</v>
+        <v>0.02000943742557342</v>
       </c>
       <c r="F33">
-        <v>0.06076341364466425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.006093573828124582</v>
+      </c>
+      <c r="G33">
+        <v>0.03953519632390218</v>
+      </c>
+      <c r="H33">
+        <v>0.05108589682959718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03459225391963615</v>
+        <v>0.02423414087221505</v>
       </c>
       <c r="C34">
-        <v>0.01338820477502839</v>
+        <v>0.02154957918308637</v>
       </c>
       <c r="D34">
-        <v>0.0466840953107258</v>
+        <v>0.04684881526309471</v>
       </c>
       <c r="E34">
-        <v>0.0246805030783852</v>
+        <v>-0.01382946869554225</v>
       </c>
       <c r="F34">
-        <v>0.02918906037598669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01776607588360041</v>
+      </c>
+      <c r="G34">
+        <v>0.009981032419678421</v>
+      </c>
+      <c r="H34">
+        <v>0.0378013341926821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01723882536006331</v>
+        <v>0.01599465676018434</v>
       </c>
       <c r="C36">
-        <v>-0.0004608911738086121</v>
+        <v>-0.006458664474034055</v>
       </c>
       <c r="D36">
-        <v>0.01723373957961873</v>
+        <v>0.007766121895291325</v>
       </c>
       <c r="E36">
-        <v>0.007292776633703296</v>
+        <v>-0.007839952581562584</v>
       </c>
       <c r="F36">
-        <v>0.02745412198911078</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001822918720520612</v>
+      </c>
+      <c r="G36">
+        <v>0.0178391695837216</v>
+      </c>
+      <c r="H36">
+        <v>0.01642840959203658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009318004673206304</v>
+        <v>0.02560602949777507</v>
       </c>
       <c r="C38">
-        <v>0.005690592414507765</v>
+        <v>0.01604553468428969</v>
       </c>
       <c r="D38">
-        <v>0.002476093760583366</v>
+        <v>0.01555988774564691</v>
       </c>
       <c r="E38">
-        <v>-0.0186900884958601</v>
+        <v>-2.662500504464676e-05</v>
       </c>
       <c r="F38">
-        <v>0.04292701376729565</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.005855366518856395</v>
+      </c>
+      <c r="G38">
+        <v>0.02241871794055846</v>
+      </c>
+      <c r="H38">
+        <v>0.03609684170345787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02771077008586215</v>
+        <v>0.00637180284505736</v>
       </c>
       <c r="C39">
-        <v>0.02020322824713621</v>
+        <v>0.01209522816316769</v>
       </c>
       <c r="D39">
-        <v>0.06424414279187823</v>
+        <v>0.08838137989246107</v>
       </c>
       <c r="E39">
-        <v>0.0124850546781442</v>
+        <v>0.006684518343237575</v>
       </c>
       <c r="F39">
-        <v>0.04518192686074927</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0139772493217186</v>
+      </c>
+      <c r="G39">
+        <v>0.03101277219902523</v>
+      </c>
+      <c r="H39">
+        <v>0.08151347617097883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01717026663140922</v>
+        <v>0.02474109000277528</v>
       </c>
       <c r="C40">
-        <v>0.04826228188833873</v>
+        <v>0.001511467381210808</v>
       </c>
       <c r="D40">
-        <v>0.0329408278653273</v>
+        <v>0.03392962095217817</v>
       </c>
       <c r="E40">
-        <v>0.02626832706635224</v>
+        <v>0.02409550412123984</v>
       </c>
       <c r="F40">
-        <v>0.0437434708331706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03070697817454566</v>
+      </c>
+      <c r="G40">
+        <v>0.01800420897470868</v>
+      </c>
+      <c r="H40">
+        <v>0.06198288888789534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004479209973867205</v>
+        <v>0.01263622297248043</v>
       </c>
       <c r="C41">
-        <v>-0.001703855441084508</v>
+        <v>-0.003505256424905975</v>
       </c>
       <c r="D41">
-        <v>0.007242163363077215</v>
+        <v>-0.009063907671921645</v>
       </c>
       <c r="E41">
-        <v>-0.0130599481244178</v>
+        <v>-0.004061195842952909</v>
       </c>
       <c r="F41">
-        <v>0.004694285219781994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006144341412874971</v>
+      </c>
+      <c r="G41">
+        <v>-0.001715466771418961</v>
+      </c>
+      <c r="H41">
+        <v>-0.00372339990338058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2466381716289869</v>
+        <v>0.1186031267318883</v>
       </c>
       <c r="C42">
-        <v>0.2150406815873538</v>
+        <v>-0.06290742411291482</v>
       </c>
       <c r="D42">
-        <v>0.1119671745642714</v>
+        <v>0.2481020699396</v>
       </c>
       <c r="E42">
-        <v>-0.8707185390218974</v>
+        <v>0.2354866650622341</v>
       </c>
       <c r="F42">
-        <v>-0.265464797950121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8278782401888202</v>
+      </c>
+      <c r="G42">
+        <v>-0.3961505584325135</v>
+      </c>
+      <c r="H42">
+        <v>0.03590170030773542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002629932129342083</v>
+        <v>0.01378677873648171</v>
       </c>
       <c r="C43">
-        <v>0.001523015305185431</v>
+        <v>-0.004104141364800946</v>
       </c>
       <c r="D43">
-        <v>0.01091465452066279</v>
+        <v>-0.008486972042243432</v>
       </c>
       <c r="E43">
-        <v>-0.008075923221832903</v>
+        <v>-0.0001586367439320042</v>
       </c>
       <c r="F43">
-        <v>0.02196863308960233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.006146642330380133</v>
+      </c>
+      <c r="G43">
+        <v>0.000771796503888908</v>
+      </c>
+      <c r="H43">
+        <v>0.003998859798218965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0232196107996261</v>
+        <v>0.01238492268200289</v>
       </c>
       <c r="C44">
-        <v>-0.00384225996890543</v>
+        <v>0.007744664299083707</v>
       </c>
       <c r="D44">
-        <v>0.04199693610666032</v>
+        <v>0.04346645489102371</v>
       </c>
       <c r="E44">
-        <v>-0.005672064654115857</v>
+        <v>-0.01264333157865976</v>
       </c>
       <c r="F44">
-        <v>0.09315876785265383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.008370670639240496</v>
+      </c>
+      <c r="G44">
+        <v>0.0384203515202236</v>
+      </c>
+      <c r="H44">
+        <v>0.06194608769669277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01828197479363492</v>
+        <v>0.007232171579233272</v>
       </c>
       <c r="C46">
-        <v>0.008333222769693579</v>
+        <v>-0.005610159930643559</v>
       </c>
       <c r="D46">
-        <v>0.06416890491537701</v>
+        <v>0.01726121347286977</v>
       </c>
       <c r="E46">
-        <v>0.01550047138814632</v>
+        <v>-0.001498698199002873</v>
       </c>
       <c r="F46">
-        <v>0.05839742203389581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.001491254711502684</v>
+      </c>
+      <c r="G46">
+        <v>0.04155242883074858</v>
+      </c>
+      <c r="H46">
+        <v>0.008706504685388885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08208491827689249</v>
+        <v>0.0593245716903712</v>
       </c>
       <c r="C47">
-        <v>0.04750647694724208</v>
+        <v>0.02688164547313196</v>
       </c>
       <c r="D47">
-        <v>0.01814762049735302</v>
+        <v>0.06028150618499113</v>
       </c>
       <c r="E47">
-        <v>0.02436011791064464</v>
+        <v>-0.00542606498904342</v>
       </c>
       <c r="F47">
-        <v>0.004609226679528335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.007370375097505892</v>
+      </c>
+      <c r="G47">
+        <v>-0.002449444938916604</v>
+      </c>
+      <c r="H47">
+        <v>-0.03005490233743378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01741438060514795</v>
+        <v>0.01755052101124288</v>
       </c>
       <c r="C48">
-        <v>0.0101903517294504</v>
+        <v>0.005210695697220523</v>
       </c>
       <c r="D48">
-        <v>0.02435167724257772</v>
+        <v>0.01525471504368471</v>
       </c>
       <c r="E48">
-        <v>0.005844883012097867</v>
+        <v>-0.0009719655387385069</v>
       </c>
       <c r="F48">
-        <v>0.03250014041025762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.002993767632612604</v>
+      </c>
+      <c r="G48">
+        <v>0.01804723421271411</v>
+      </c>
+      <c r="H48">
+        <v>0.0198630275103296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08357610427920632</v>
+        <v>0.06286984986429041</v>
       </c>
       <c r="C50">
-        <v>0.03035483389371267</v>
+        <v>0.02470050650270167</v>
       </c>
       <c r="D50">
-        <v>0.03974080886730189</v>
+        <v>0.05739942266577524</v>
       </c>
       <c r="E50">
-        <v>0.01619303137768552</v>
+        <v>-0.01675996847398864</v>
       </c>
       <c r="F50">
-        <v>0.01806211785657307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.001998014181690426</v>
+      </c>
+      <c r="G50">
+        <v>0.007838860259915365</v>
+      </c>
+      <c r="H50">
+        <v>-0.0163881146456743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01929710174600927</v>
+        <v>0.01594287134775785</v>
       </c>
       <c r="C51">
-        <v>0.004498765222451125</v>
+        <v>-0.00114547297311651</v>
       </c>
       <c r="D51">
-        <v>0.003966909699942596</v>
+        <v>0.01233415506575108</v>
       </c>
       <c r="E51">
-        <v>0.00193560252914272</v>
+        <v>-0.007855095606019611</v>
       </c>
       <c r="F51">
-        <v>0.08391958626957757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.002026268253440708</v>
+      </c>
+      <c r="G51">
+        <v>0.03273016808757701</v>
+      </c>
+      <c r="H51">
+        <v>0.04383152416179991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.090368375352376</v>
+        <v>0.07709154049847797</v>
       </c>
       <c r="C53">
-        <v>0.05128889487901467</v>
+        <v>0.03685125292567616</v>
       </c>
       <c r="D53">
-        <v>0.03896571115310346</v>
+        <v>0.09453180277155931</v>
       </c>
       <c r="E53">
-        <v>0.0373165548787964</v>
+        <v>-0.010105147364748</v>
       </c>
       <c r="F53">
-        <v>-0.03945558278012593</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0289100799812302</v>
+      </c>
+      <c r="G53">
+        <v>-0.02443402668958405</v>
+      </c>
+      <c r="H53">
+        <v>-0.03153856308259751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02228304603475698</v>
+        <v>0.02415410084779441</v>
       </c>
       <c r="C54">
-        <v>0.0005976097294143291</v>
+        <v>0.005969467788886245</v>
       </c>
       <c r="D54">
-        <v>0.008179926116759622</v>
+        <v>-0.006182086900565328</v>
       </c>
       <c r="E54">
-        <v>0.009523752663550735</v>
+        <v>-0.006127606484248102</v>
       </c>
       <c r="F54">
-        <v>0.03093111886431167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.007135280295236367</v>
+      </c>
+      <c r="G54">
+        <v>0.03892658730442377</v>
+      </c>
+      <c r="H54">
+        <v>0.0005050775000045849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08644613785636356</v>
+        <v>0.05928277122476058</v>
       </c>
       <c r="C55">
-        <v>0.04632394909960093</v>
+        <v>0.03251889357825878</v>
       </c>
       <c r="D55">
-        <v>0.04856594070316529</v>
+        <v>0.08762343812485475</v>
       </c>
       <c r="E55">
-        <v>0.02819253909753164</v>
+        <v>-0.008921248747992098</v>
       </c>
       <c r="F55">
-        <v>-0.03900277583707284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01676281661989711</v>
+      </c>
+      <c r="G55">
+        <v>-0.007365107509554386</v>
+      </c>
+      <c r="H55">
+        <v>-0.04063880665827661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1280769556643111</v>
+        <v>0.1020682041144408</v>
       </c>
       <c r="C56">
-        <v>0.07825372674040539</v>
+        <v>0.0535455153844336</v>
       </c>
       <c r="D56">
-        <v>0.03082932384462914</v>
+        <v>0.1204381255873267</v>
       </c>
       <c r="E56">
-        <v>0.07946767977664833</v>
+        <v>-0.01004179953214522</v>
       </c>
       <c r="F56">
-        <v>-0.07151564554935012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05527486804873949</v>
+      </c>
+      <c r="G56">
+        <v>-0.04826999020400264</v>
+      </c>
+      <c r="H56">
+        <v>-0.06934622482051342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04045582039778892</v>
+        <v>0.02821640122133049</v>
       </c>
       <c r="C57">
-        <v>0.03338847843535966</v>
+        <v>-0.01139986787657017</v>
       </c>
       <c r="D57">
-        <v>0.01944450632597812</v>
+        <v>0.03969208060930295</v>
       </c>
       <c r="E57">
-        <v>-0.00997739033665653</v>
+        <v>0.01112965396045553</v>
       </c>
       <c r="F57">
-        <v>0.04824938704899908</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.006714245936154901</v>
+      </c>
+      <c r="G57">
+        <v>0.06467959254496648</v>
+      </c>
+      <c r="H57">
+        <v>0.05362880634510074</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1474680411456906</v>
+        <v>0.09929934111676553</v>
       </c>
       <c r="C58">
-        <v>0.2031918169519313</v>
+        <v>0.04588212615708871</v>
       </c>
       <c r="D58">
-        <v>0.2255091517993059</v>
+        <v>0.1778436467548206</v>
       </c>
       <c r="E58">
-        <v>-0.006808245172441201</v>
+        <v>0.2914131122680681</v>
       </c>
       <c r="F58">
-        <v>0.531729691101624</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.250066317577</v>
+      </c>
+      <c r="G58">
+        <v>0.7910169605862677</v>
+      </c>
+      <c r="H58">
+        <v>-0.3144857094412535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05405272760931355</v>
+        <v>0.1986102873378087</v>
       </c>
       <c r="C59">
-        <v>0.0266750140625874</v>
+        <v>-0.01069441607269419</v>
       </c>
       <c r="D59">
-        <v>-0.1816953510230358</v>
+        <v>-0.185293636131345</v>
       </c>
       <c r="E59">
-        <v>-0.01607587812925309</v>
+        <v>0.007910481391512169</v>
       </c>
       <c r="F59">
-        <v>0.09421498680216542</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.005579590867488203</v>
+      </c>
+      <c r="G59">
+        <v>0.02019129957283138</v>
+      </c>
+      <c r="H59">
+        <v>0.01821625693920214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1339997694732014</v>
+        <v>0.2086327478939575</v>
       </c>
       <c r="C60">
-        <v>0.111186110389897</v>
+        <v>0.02648577284475092</v>
       </c>
       <c r="D60">
-        <v>-0.002332740705730576</v>
+        <v>0.0472434120283458</v>
       </c>
       <c r="E60">
-        <v>-0.02008270792857563</v>
+        <v>0.05097717190360019</v>
       </c>
       <c r="F60">
-        <v>0.1616161978747407</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07762031466402911</v>
+      </c>
+      <c r="G60">
+        <v>0.0213306266360745</v>
+      </c>
+      <c r="H60">
+        <v>0.3755670765539488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01954662398096875</v>
+        <v>0.01401739545371154</v>
       </c>
       <c r="C61">
-        <v>0.009850625608904677</v>
+        <v>0.01303146062026569</v>
       </c>
       <c r="D61">
-        <v>0.04623097463512947</v>
+        <v>0.05925336182646192</v>
       </c>
       <c r="E61">
-        <v>0.003695597120105681</v>
+        <v>-0.002987268514365815</v>
       </c>
       <c r="F61">
-        <v>0.015099532055659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01776125294932219</v>
+      </c>
+      <c r="G61">
+        <v>0.02233332473764662</v>
+      </c>
+      <c r="H61">
+        <v>0.05910644727513305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01093456914630602</v>
+        <v>0.005860966041738468</v>
       </c>
       <c r="C63">
-        <v>0.004757857115036454</v>
+        <v>-0.001265818708500846</v>
       </c>
       <c r="D63">
-        <v>0.03305826620807802</v>
+        <v>0.0246662355467671</v>
       </c>
       <c r="E63">
-        <v>0.002214741396377513</v>
+        <v>-0.006307203396870745</v>
       </c>
       <c r="F63">
-        <v>0.007778513603712525</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.004338240980556319</v>
+      </c>
+      <c r="G63">
+        <v>0.01702877781746078</v>
+      </c>
+      <c r="H63">
+        <v>0.01192606060753265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03299771201416548</v>
+        <v>0.03561643064293584</v>
       </c>
       <c r="C64">
-        <v>7.576461262060975e-05</v>
+        <v>0.01008364889689116</v>
       </c>
       <c r="D64">
-        <v>0.0349649121643914</v>
+        <v>0.04078937711160295</v>
       </c>
       <c r="E64">
-        <v>0.01326121371256038</v>
+        <v>-0.01596511220765863</v>
       </c>
       <c r="F64">
-        <v>0.01984128585601694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.005109474270962601</v>
+      </c>
+      <c r="G64">
+        <v>-0.009084944674852789</v>
+      </c>
+      <c r="H64">
+        <v>0.04954893895440288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03576243834670784</v>
+        <v>0.03702339492972966</v>
       </c>
       <c r="C65">
-        <v>0.01341667425765391</v>
+        <v>0.007432598216106763</v>
       </c>
       <c r="D65">
-        <v>0.04077669425972561</v>
+        <v>0.07882691261293957</v>
       </c>
       <c r="E65">
-        <v>0.02008329908288343</v>
+        <v>-0.008264087821102512</v>
       </c>
       <c r="F65">
-        <v>0.003989960970796031</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04582918323396005</v>
+      </c>
+      <c r="G65">
+        <v>0.0010186539432433</v>
+      </c>
+      <c r="H65">
+        <v>0.07074733449103993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03228878461675349</v>
+        <v>0.01506990898005864</v>
       </c>
       <c r="C66">
-        <v>0.03055710293944742</v>
+        <v>0.02076187311914621</v>
       </c>
       <c r="D66">
-        <v>0.07222982677980283</v>
+        <v>0.1109107287526656</v>
       </c>
       <c r="E66">
-        <v>0.03242515241034355</v>
+        <v>0.007616197666424281</v>
       </c>
       <c r="F66">
-        <v>0.02928270715026611</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03581438862032775</v>
+      </c>
+      <c r="G66">
+        <v>0.03158095170829252</v>
+      </c>
+      <c r="H66">
+        <v>0.0848687770957645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01994987934845163</v>
+        <v>0.04673498525138996</v>
       </c>
       <c r="C67">
-        <v>0.01585503028971666</v>
+        <v>0.01802983385259234</v>
       </c>
       <c r="D67">
-        <v>-0.006798798615927827</v>
+        <v>0.02126716390954799</v>
       </c>
       <c r="E67">
-        <v>-0.007803787782444319</v>
+        <v>0.0012647305723184</v>
       </c>
       <c r="F67">
-        <v>0.02504363426385451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01830619827243894</v>
+      </c>
+      <c r="G67">
+        <v>0.01478332535004929</v>
+      </c>
+      <c r="H67">
+        <v>0.03372615640366975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06776547812256319</v>
+        <v>0.2014303015637597</v>
       </c>
       <c r="C68">
-        <v>0.02251691370350143</v>
+        <v>-0.03559244917406786</v>
       </c>
       <c r="D68">
-        <v>-0.2130351758521456</v>
+        <v>-0.2081359051272324</v>
       </c>
       <c r="E68">
-        <v>-0.02661587686252535</v>
+        <v>0.01025114413934515</v>
       </c>
       <c r="F68">
-        <v>0.08334848617741934</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04617467818787373</v>
+      </c>
+      <c r="G68">
+        <v>0.02464865247432031</v>
+      </c>
+      <c r="H68">
+        <v>-0.04366699943750178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05896785261283296</v>
+        <v>0.05801171099438581</v>
       </c>
       <c r="C69">
-        <v>0.03672192512345981</v>
+        <v>0.02918429350956369</v>
       </c>
       <c r="D69">
-        <v>0.02059684854254914</v>
+        <v>0.05153910521329078</v>
       </c>
       <c r="E69">
-        <v>0.03342886184097243</v>
+        <v>-0.00527341696854145</v>
       </c>
       <c r="F69">
-        <v>0.005931889860772392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02784140457820482</v>
+      </c>
+      <c r="G69">
+        <v>-0.006088639263845569</v>
+      </c>
+      <c r="H69">
+        <v>0.007540622230570165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07687783938125299</v>
+        <v>0.1804398248339943</v>
       </c>
       <c r="C71">
-        <v>0.03301088348573312</v>
+        <v>-0.02052975490233841</v>
       </c>
       <c r="D71">
-        <v>-0.2161127196071959</v>
+        <v>-0.1659119999906585</v>
       </c>
       <c r="E71">
-        <v>-0.05893746134001867</v>
+        <v>0.01481599909826761</v>
       </c>
       <c r="F71">
-        <v>0.09121578290211858</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05647136534312797</v>
+      </c>
+      <c r="G71">
+        <v>0.02964789609117238</v>
+      </c>
+      <c r="H71">
+        <v>-0.02342341446702493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09627077367749805</v>
+        <v>0.06053486840509842</v>
       </c>
       <c r="C72">
-        <v>0.07470144257209309</v>
+        <v>0.04102288573982851</v>
       </c>
       <c r="D72">
-        <v>0.07971799564481871</v>
+        <v>0.09580666581752122</v>
       </c>
       <c r="E72">
-        <v>0.07661884054168752</v>
+        <v>0.01344748151820738</v>
       </c>
       <c r="F72">
-        <v>0.06960837177160632</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07007443836182342</v>
+      </c>
+      <c r="G72">
+        <v>0.02898511293562219</v>
+      </c>
+      <c r="H72">
+        <v>0.1052641728452779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1731245602687997</v>
+        <v>0.2721605786191869</v>
       </c>
       <c r="C73">
-        <v>0.179832677860731</v>
+        <v>0.04193192984558727</v>
       </c>
       <c r="D73">
-        <v>-0.01918094322070578</v>
+        <v>0.1161420353132753</v>
       </c>
       <c r="E73">
-        <v>-0.05010931243839925</v>
+        <v>0.09159293496660086</v>
       </c>
       <c r="F73">
-        <v>0.2061445195321517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.09176225879251128</v>
+      </c>
+      <c r="G73">
+        <v>0.02920533078806765</v>
+      </c>
+      <c r="H73">
+        <v>0.4854750101934198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1183356803217859</v>
+        <v>0.1007273222091738</v>
       </c>
       <c r="C74">
-        <v>0.07133324913848314</v>
+        <v>0.05335172090572485</v>
       </c>
       <c r="D74">
-        <v>0.03110560607313593</v>
+        <v>0.1227730748780417</v>
       </c>
       <c r="E74">
-        <v>0.04583042568818794</v>
+        <v>-0.0119456602561289</v>
       </c>
       <c r="F74">
-        <v>-0.078708442016311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03995208743427026</v>
+      </c>
+      <c r="G74">
+        <v>-0.03250439322729137</v>
+      </c>
+      <c r="H74">
+        <v>-0.03681458145629336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2053792513912767</v>
+        <v>0.2017681236085946</v>
       </c>
       <c r="C75">
-        <v>0.1399352066738766</v>
+        <v>0.09762972560585463</v>
       </c>
       <c r="D75">
-        <v>0.03556880169021213</v>
+        <v>0.1959127622672057</v>
       </c>
       <c r="E75">
-        <v>0.1520729071251072</v>
+        <v>-0.009320713523168121</v>
       </c>
       <c r="F75">
-        <v>-0.1155428024209971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1040165200746028</v>
+      </c>
+      <c r="G75">
+        <v>-0.08750781425160074</v>
+      </c>
+      <c r="H75">
+        <v>-0.1481070800304126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2525849775551346</v>
+        <v>0.1616274484649991</v>
       </c>
       <c r="C76">
-        <v>0.1239773708482685</v>
+        <v>0.08867462147208255</v>
       </c>
       <c r="D76">
-        <v>0.04171936645485062</v>
+        <v>0.182737668351256</v>
       </c>
       <c r="E76">
-        <v>0.1784306123688784</v>
+        <v>-0.0477103007955379</v>
       </c>
       <c r="F76">
-        <v>-0.2005058718076984</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.08950093236056361</v>
+      </c>
+      <c r="G76">
+        <v>-0.07497795464274834</v>
+      </c>
+      <c r="H76">
+        <v>-0.1260287731444918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09727857273865638</v>
+        <v>0.05365185891212758</v>
       </c>
       <c r="C77">
-        <v>0.07375253561690702</v>
+        <v>0.01422548040246907</v>
       </c>
       <c r="D77">
-        <v>0.1167509373236801</v>
+        <v>0.09093820181340541</v>
       </c>
       <c r="E77">
-        <v>-0.04763185989668157</v>
+        <v>0.0201395445516039</v>
       </c>
       <c r="F77">
-        <v>0.1238187460850251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03311530980777552</v>
+      </c>
+      <c r="G77">
+        <v>0.06627283017637615</v>
+      </c>
+      <c r="H77">
+        <v>0.02602444912743496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06005643932613818</v>
+        <v>0.02787854030730663</v>
       </c>
       <c r="C78">
-        <v>0.02899327039865793</v>
+        <v>0.01666579417754361</v>
       </c>
       <c r="D78">
-        <v>0.1235024667850562</v>
+        <v>0.07744780179417253</v>
       </c>
       <c r="E78">
-        <v>0.01480211545428975</v>
+        <v>-0.005337586636591053</v>
       </c>
       <c r="F78">
-        <v>0.07193042093335053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01209228461773649</v>
+      </c>
+      <c r="G78">
+        <v>0.05502031698901159</v>
+      </c>
+      <c r="H78">
+        <v>0.09353837977923919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5676893385982289</v>
+        <v>0.1128240892255396</v>
       </c>
       <c r="C80">
-        <v>-0.8034990049558949</v>
+        <v>0.03133538359748148</v>
       </c>
       <c r="D80">
-        <v>0.06925030742109153</v>
+        <v>0.1025408659870976</v>
       </c>
       <c r="E80">
-        <v>-0.05018136579128989</v>
+        <v>-0.9066360189305849</v>
       </c>
       <c r="F80">
-        <v>0.04336428981854069</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3001098810921161</v>
+      </c>
+      <c r="G80">
+        <v>0.1717827229378011</v>
+      </c>
+      <c r="H80">
+        <v>0.01967114670304538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1622379146539022</v>
+        <v>0.1333285037171111</v>
       </c>
       <c r="C81">
-        <v>0.09512895599736516</v>
+        <v>0.06207403456286736</v>
       </c>
       <c r="D81">
-        <v>0.01848443917041185</v>
+        <v>0.1246232121001266</v>
       </c>
       <c r="E81">
-        <v>0.1227694884705871</v>
+        <v>-0.01662698314585661</v>
       </c>
       <c r="F81">
-        <v>-0.1140555264346187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06302540130337429</v>
+      </c>
+      <c r="G81">
+        <v>-0.050651932198729</v>
+      </c>
+      <c r="H81">
+        <v>-0.08002579751144594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03109561764483377</v>
+        <v>0.02845426054013643</v>
       </c>
       <c r="C83">
-        <v>0.02634921309920598</v>
+        <v>0.005468883680656992</v>
       </c>
       <c r="D83">
-        <v>0.03024139165551236</v>
+        <v>0.02775300951599485</v>
       </c>
       <c r="E83">
-        <v>-0.01307545926979</v>
+        <v>0.00782620043416779</v>
       </c>
       <c r="F83">
-        <v>0.057332734448411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.002942315184353886</v>
+      </c>
+      <c r="G83">
+        <v>0.03954380936147532</v>
+      </c>
+      <c r="H83">
+        <v>0.04354705843916663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2281155939239622</v>
+        <v>0.1907610534871907</v>
       </c>
       <c r="C85">
-        <v>0.1385108836185807</v>
+        <v>0.08362979003552336</v>
       </c>
       <c r="D85">
-        <v>0.03639039006555524</v>
+        <v>0.1999996182530387</v>
       </c>
       <c r="E85">
-        <v>0.1343648398831739</v>
+        <v>-0.008843393897721806</v>
       </c>
       <c r="F85">
-        <v>-0.150891214206941</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.09605872533907771</v>
+      </c>
+      <c r="G85">
+        <v>-0.1153802817468072</v>
+      </c>
+      <c r="H85">
+        <v>-0.07400628883470142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007837267074184485</v>
+        <v>0.01424946501053206</v>
       </c>
       <c r="C86">
-        <v>-0.002155324864182691</v>
+        <v>0.003791892016137644</v>
       </c>
       <c r="D86">
-        <v>0.08049918368764343</v>
+        <v>0.03970104734614434</v>
       </c>
       <c r="E86">
-        <v>-0.006352033086152289</v>
+        <v>-0.006214416974702886</v>
       </c>
       <c r="F86">
-        <v>0.04910112367921097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01456683382285438</v>
+      </c>
+      <c r="G86">
+        <v>0.0388578086534709</v>
+      </c>
+      <c r="H86">
+        <v>0.07983850612723133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03342743988756752</v>
+        <v>0.01520906972126558</v>
       </c>
       <c r="C87">
-        <v>0.01781084634759881</v>
+        <v>0.004830655752766007</v>
       </c>
       <c r="D87">
-        <v>0.04293396012443403</v>
+        <v>0.04792151517648997</v>
       </c>
       <c r="E87">
-        <v>-0.003358932353458816</v>
+        <v>0.003419934312240203</v>
       </c>
       <c r="F87">
-        <v>0.103793101177189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.004915408540881743</v>
+      </c>
+      <c r="G87">
+        <v>0.07184529085879703</v>
+      </c>
+      <c r="H87">
+        <v>0.08516038233427695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.019023337417913</v>
+        <v>0.03869376374736819</v>
       </c>
       <c r="C88">
-        <v>-0.005154352256118827</v>
+        <v>-0.01035453929071619</v>
       </c>
       <c r="D88">
-        <v>-0.003961006923716916</v>
+        <v>0.02695815567198851</v>
       </c>
       <c r="E88">
-        <v>0.01608989527661966</v>
+        <v>-0.02075147053564536</v>
       </c>
       <c r="F88">
-        <v>-0.01285665830404426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01753079774382964</v>
+      </c>
+      <c r="G88">
+        <v>-0.001686119475194072</v>
+      </c>
+      <c r="H88">
+        <v>0.007341821106078899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1052294961926381</v>
+        <v>0.3074160027927543</v>
       </c>
       <c r="C89">
-        <v>0.0503800335358916</v>
+        <v>-0.03901893362972324</v>
       </c>
       <c r="D89">
-        <v>-0.3321193180131567</v>
+        <v>-0.2956702511286812</v>
       </c>
       <c r="E89">
-        <v>-0.02603508492673164</v>
+        <v>0.01158577560447374</v>
       </c>
       <c r="F89">
-        <v>0.1187126021903343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01819384658013968</v>
+      </c>
+      <c r="G89">
+        <v>-0.01770122237415169</v>
+      </c>
+      <c r="H89">
+        <v>-0.006066202172467484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09155520659865825</v>
+        <v>0.2579699890376193</v>
       </c>
       <c r="C90">
-        <v>0.02001243520358715</v>
+        <v>-0.03648171161009334</v>
       </c>
       <c r="D90">
-        <v>-0.3639460694647873</v>
+        <v>-0.2755789811976925</v>
       </c>
       <c r="E90">
-        <v>-0.04449683027957456</v>
+        <v>0.004733537222787552</v>
       </c>
       <c r="F90">
-        <v>0.06047209574188394</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05922051962584707</v>
+      </c>
+      <c r="G90">
+        <v>-0.006267745078579379</v>
+      </c>
+      <c r="H90">
+        <v>-0.05447912839115523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2568189311886079</v>
+        <v>0.1985703437871846</v>
       </c>
       <c r="C91">
-        <v>0.1777168939132187</v>
+        <v>0.09227124181087894</v>
       </c>
       <c r="D91">
-        <v>0.02746815700428579</v>
+        <v>0.1825411867215644</v>
       </c>
       <c r="E91">
-        <v>0.1269513330234681</v>
+        <v>0.002073664681884762</v>
       </c>
       <c r="F91">
-        <v>-0.2408388499378598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08626942645965642</v>
+      </c>
+      <c r="G91">
+        <v>-0.1046690745909528</v>
+      </c>
+      <c r="H91">
+        <v>-0.1698843691788627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1590970412929355</v>
+        <v>0.2790919710627595</v>
       </c>
       <c r="C92">
-        <v>0.06996565163770725</v>
+        <v>0.03123528305948874</v>
       </c>
       <c r="D92">
-        <v>-0.4141661706017306</v>
+        <v>-0.1931330924234702</v>
       </c>
       <c r="E92">
-        <v>0.133257309282281</v>
+        <v>-0.006674079560219895</v>
       </c>
       <c r="F92">
-        <v>-0.01304102060439146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.005539710898530567</v>
+      </c>
+      <c r="G92">
+        <v>0.0359614467698138</v>
+      </c>
+      <c r="H92">
+        <v>-0.1473120801338035</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09046864933333897</v>
+        <v>0.2873578642594436</v>
       </c>
       <c r="C93">
-        <v>0.05853127571142851</v>
+        <v>-0.0266998289962509</v>
       </c>
       <c r="D93">
-        <v>-0.4336254862494354</v>
+        <v>-0.2785794592400995</v>
       </c>
       <c r="E93">
-        <v>-0.0693718217157874</v>
+        <v>0.0331493902729912</v>
       </c>
       <c r="F93">
-        <v>0.07891224519611416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05090241651241113</v>
+      </c>
+      <c r="G93">
+        <v>-0.01261866061567098</v>
+      </c>
+      <c r="H93">
+        <v>-0.001610796201748714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2503362294837228</v>
+        <v>0.2488485424494892</v>
       </c>
       <c r="C94">
-        <v>0.1834110486589649</v>
+        <v>0.09203750634422236</v>
       </c>
       <c r="D94">
-        <v>0.03244125117618718</v>
+        <v>0.2081658482292205</v>
       </c>
       <c r="E94">
-        <v>0.2322740608423819</v>
+        <v>0.003788214411739316</v>
       </c>
       <c r="F94">
-        <v>-0.186459431041261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2192611142961543</v>
+      </c>
+      <c r="G94">
+        <v>-0.1868091181826054</v>
+      </c>
+      <c r="H94">
+        <v>-0.3840025179607029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01633409137173769</v>
+        <v>0.03011158209442573</v>
       </c>
       <c r="C95">
-        <v>0.08581407093278491</v>
+        <v>0.03400861418940323</v>
       </c>
       <c r="D95">
-        <v>0.06245850876702683</v>
+        <v>0.0936073934013152</v>
       </c>
       <c r="E95">
-        <v>-0.01540463431717131</v>
+        <v>0.08213759926704838</v>
       </c>
       <c r="F95">
-        <v>0.0100023977940516</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01758240709776724</v>
+      </c>
+      <c r="G95">
+        <v>0.03896917554954425</v>
+      </c>
+      <c r="H95">
+        <v>0.03300084918639597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1407109373208287</v>
+        <v>0.1880211730437031</v>
       </c>
       <c r="C98">
-        <v>0.1174867925145484</v>
+        <v>0.05309632427003948</v>
       </c>
       <c r="D98">
-        <v>-0.02056034888984776</v>
+        <v>0.05353618625574278</v>
       </c>
       <c r="E98">
-        <v>-0.04895202158361091</v>
+        <v>0.06517290624235787</v>
       </c>
       <c r="F98">
-        <v>0.1646681188040605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01798556075149317</v>
+      </c>
+      <c r="G98">
+        <v>0.06452099306352693</v>
+      </c>
+      <c r="H98">
+        <v>0.3344594442181349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006577751379383144</v>
+        <v>0.009009282016711324</v>
       </c>
       <c r="C101">
-        <v>-0.003139692484921464</v>
+        <v>-0.0003631576709827337</v>
       </c>
       <c r="D101">
-        <v>0.0736418712602375</v>
+        <v>0.02024810044545579</v>
       </c>
       <c r="E101">
-        <v>0.02184970450427161</v>
+        <v>0.001410853123731946</v>
       </c>
       <c r="F101">
-        <v>0.1714934266975821</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.004793755394493456</v>
+      </c>
+      <c r="G101">
+        <v>0.0989074646655399</v>
+      </c>
+      <c r="H101">
+        <v>-0.01097497456689204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1037125185423182</v>
+        <v>0.09525712143837832</v>
       </c>
       <c r="C102">
-        <v>0.05967100496704435</v>
+        <v>0.03350180545083099</v>
       </c>
       <c r="D102">
-        <v>0.01934838067276881</v>
+        <v>0.09542499999413029</v>
       </c>
       <c r="E102">
-        <v>0.07197554287297778</v>
+        <v>-0.009068244734320094</v>
       </c>
       <c r="F102">
-        <v>-0.09563731622930148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05230615752286644</v>
+      </c>
+      <c r="G102">
+        <v>-0.05083284151282546</v>
+      </c>
+      <c r="H102">
+        <v>-0.06397199483166724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04228223097867405</v>
+        <v>0.01231695657540891</v>
       </c>
       <c r="C103">
-        <v>0.01126915540736638</v>
+        <v>0.006233390523166833</v>
       </c>
       <c r="D103">
-        <v>0.02884699137010529</v>
+        <v>0.01803795132297617</v>
       </c>
       <c r="E103">
-        <v>0.03442740621475141</v>
+        <v>-0.01268401597533341</v>
       </c>
       <c r="F103">
-        <v>-0.006977053135270214</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.003714049036361756</v>
+      </c>
+      <c r="G103">
+        <v>0.006370313016694591</v>
+      </c>
+      <c r="H103">
+        <v>-0.01346140610958346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1275930542614815</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9572934515085363</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1966369380513557</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03136692711715722</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.124104951151483</v>
+      </c>
+      <c r="G104">
+        <v>0.01970470634048497</v>
+      </c>
+      <c r="H104">
+        <v>-0.05235033899600026</v>
       </c>
     </row>
   </sheetData>
